--- a/meta/12-b-1.xlsx
+++ b/meta/12-b-1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835"/>
   </bookViews>
   <sheets>
     <sheet name="Лист" sheetId="2" r:id="rId1"/>
@@ -100,9 +100,6 @@
     <t xml:space="preserve">12.b Разрабатывать и внедрять инструменты мониторинга влияния, оказываемого на устойчивое развитие устойчивым туризмом, который способствует созданию рабочих мест, развитию местной культуры и производству местной продукции </t>
   </si>
   <si>
-    <t>12.b.1 Число стратегий или директив и осуществляемых планов действий в области устойчивого туризма с согласованными инструментами мониторинга и оценки</t>
-  </si>
-  <si>
     <t>Департамент туризма при Министерстве культуры, информации и туризма Кыргызской Республики</t>
   </si>
   <si>
@@ -160,6 +157,9 @@
   </si>
   <si>
     <t xml:space="preserve">На официальном сайте Департамента туризма при МКИТ КР  </t>
+  </si>
+  <si>
+    <t>12.b.1 Внедрение стандартных методов учета в целях отслеживания экономических и экологических характеристик устойчивости туризма</t>
   </si>
 </sst>
 </file>
@@ -568,7 +568,7 @@
   <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -605,7 +605,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -619,7 +619,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -627,7 +627,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -635,7 +635,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -643,7 +643,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -651,7 +651,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -665,7 +665,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="273" customHeight="1" x14ac:dyDescent="0.25">
@@ -673,7 +673,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="301.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -681,7 +681,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -695,7 +695,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -703,7 +703,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -717,7 +717,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -725,7 +725,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -733,7 +733,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -747,7 +747,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -767,7 +767,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
